--- a/code/all_keywords_word_count.xlsx
+++ b/code/all_keywords_word_count.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">rank</t>
   </si>
@@ -327,306 +327,6 @@
   </si>
   <si>
     <t xml:space="preserve">water supply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social vulnerability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">policy approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resource management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coastal zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">queensland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flood control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">civil society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacity building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantitative analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biodiversity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socioeconomic status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fishing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mobility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hazards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">human rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban agriculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">institutional framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">culture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ethnography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">socioeconomic impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leadership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">future prospect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extreme event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complexity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">environmental management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">public health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inequality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">environmental planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tourism development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assessment method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crisis management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">political economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numerical model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecosystem service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">investment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban growth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urban policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">policy implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">theoretical study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neighborhood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">violence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disaster resilience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ecotourism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refugee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">land use change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">land use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tourist destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citizenship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quality of life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coastal zone management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fishery policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiculturalism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rural society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ethics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">environmental protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pandemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small scale industry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indigenous population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crisis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">latin america</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protected area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">european union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">middle aged</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spatial planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">economic impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">economic and social effects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hurricane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">identity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nongovernmental organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">north america</t>
-  </si>
-  <si>
-    <t xml:space="preserve">management practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">place attachment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tsunami</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sunda isles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social networking (online)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">community response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">participation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">environmental justice</t>
   </si>
 </sst>
 </file>
@@ -986,7 +686,7 @@
         <v>527</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -1003,7 +703,7 @@
         <v>394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E3" t="n">
         <v>1.34</v>
@@ -1020,7 +720,7 @@
         <v>234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E4" t="n">
         <v>2.25</v>
@@ -1037,7 +737,7 @@
         <v>192</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E5" t="n">
         <v>2.74</v>
@@ -1190,7 +890,7 @@
         <v>131</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E14" t="n">
         <v>4.02</v>
@@ -1207,7 +907,7 @@
         <v>125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E15" t="n">
         <v>4.22</v>
@@ -1224,7 +924,7 @@
         <v>120</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E16" t="n">
         <v>4.39</v>
@@ -1241,7 +941,7 @@
         <v>113</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E17" t="n">
         <v>4.66</v>
@@ -1258,7 +958,7 @@
         <v>111</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E18" t="n">
         <v>4.75</v>
@@ -1275,7 +975,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E19" t="n">
         <v>4.83</v>
@@ -1853,7 +1553,7 @@
         <v>44</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E53" t="n">
         <v>11.98</v>
@@ -1870,7 +1570,7 @@
         <v>44</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E54" t="n">
         <v>11.98</v>
@@ -1887,7 +1587,7 @@
         <v>42</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E55" t="n">
         <v>12.55</v>
@@ -1904,7 +1604,7 @@
         <v>42</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E56" t="n">
         <v>12.55</v>
@@ -1921,7 +1621,7 @@
         <v>41</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E57" t="n">
         <v>12.85</v>
@@ -1938,7 +1638,7 @@
         <v>41</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E58" t="n">
         <v>12.85</v>
@@ -1955,7 +1655,7 @@
         <v>41</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E59" t="n">
         <v>12.85</v>
@@ -1972,7 +1672,7 @@
         <v>41</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E60" t="n">
         <v>12.85</v>
@@ -1989,7 +1689,7 @@
         <v>39</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E61" t="n">
         <v>13.51</v>
@@ -2006,7 +1706,7 @@
         <v>39</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E62" t="n">
         <v>13.51</v>
@@ -2023,7 +1723,7 @@
         <v>39</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E63" t="n">
         <v>13.51</v>
@@ -2040,7 +1740,7 @@
         <v>37</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E64" t="n">
         <v>14.24</v>
@@ -2057,7 +1757,7 @@
         <v>37</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E65" t="n">
         <v>14.24</v>
@@ -2074,7 +1774,7 @@
         <v>37</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E66" t="n">
         <v>14.24</v>
@@ -2091,7 +1791,7 @@
         <v>37</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E67" t="n">
         <v>14.24</v>
@@ -2108,7 +1808,7 @@
         <v>37</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E68" t="n">
         <v>14.24</v>
@@ -2673,1706 +2373,6 @@
       </c>
       <c r="E101" t="n">
         <v>18.82</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" t="n">
-        <v>27</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-      <c r="E102" t="n">
-        <v>19.52</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" t="n">
-        <v>27</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" t="n">
-        <v>19.52</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>107</v>
-      </c>
-      <c r="C104" t="n">
-        <v>27</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>19.52</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>108</v>
-      </c>
-      <c r="C105" t="n">
-        <v>27</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>19.52</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>109</v>
-      </c>
-      <c r="C106" t="n">
-        <v>27</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>19.52</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" t="n">
-        <v>27</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="n">
-        <v>19.52</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>111</v>
-      </c>
-      <c r="C108" t="n">
-        <v>27</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="n">
-        <v>19.52</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>112</v>
-      </c>
-      <c r="C109" t="n">
-        <v>26</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>20.27</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" t="n">
-        <v>26</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>20.27</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>114</v>
-      </c>
-      <c r="C111" t="n">
-        <v>26</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="n">
-        <v>20.27</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" t="n">
-        <v>25</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="n">
-        <v>21.08</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>116</v>
-      </c>
-      <c r="C113" t="n">
-        <v>25</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>21.08</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C114" t="n">
-        <v>25</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>21.08</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>118</v>
-      </c>
-      <c r="C115" t="n">
-        <v>25</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="n">
-        <v>21.08</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>119</v>
-      </c>
-      <c r="C116" t="n">
-        <v>24</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" t="n">
-        <v>24</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118" t="n">
-        <v>24</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="n">
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>122</v>
-      </c>
-      <c r="C119" t="n">
-        <v>24</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>123</v>
-      </c>
-      <c r="C120" t="n">
-        <v>24</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>124</v>
-      </c>
-      <c r="C121" t="n">
-        <v>24</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>125</v>
-      </c>
-      <c r="C122" t="n">
-        <v>24</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>126</v>
-      </c>
-      <c r="C123" t="n">
-        <v>24</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="n">
-        <v>21.96</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>127</v>
-      </c>
-      <c r="C124" t="n">
-        <v>23</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" t="n">
-        <v>22.91</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>128</v>
-      </c>
-      <c r="C125" t="n">
-        <v>23</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" t="n">
-        <v>22.91</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>129</v>
-      </c>
-      <c r="C126" t="n">
-        <v>23</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="n">
-        <v>22.91</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>130</v>
-      </c>
-      <c r="C127" t="n">
-        <v>23</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="n">
-        <v>22.91</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>131</v>
-      </c>
-      <c r="C128" t="n">
-        <v>23</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="n">
-        <v>22.91</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>132</v>
-      </c>
-      <c r="C129" t="n">
-        <v>23</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="n">
-        <v>22.91</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>133</v>
-      </c>
-      <c r="C130" t="n">
-        <v>22</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>134</v>
-      </c>
-      <c r="C131" t="n">
-        <v>22</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>135</v>
-      </c>
-      <c r="C132" t="n">
-        <v>22</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>136</v>
-      </c>
-      <c r="C133" t="n">
-        <v>22</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>137</v>
-      </c>
-      <c r="C134" t="n">
-        <v>22</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>138</v>
-      </c>
-      <c r="C135" t="n">
-        <v>22</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>139</v>
-      </c>
-      <c r="C136" t="n">
-        <v>22</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>140</v>
-      </c>
-      <c r="C137" t="n">
-        <v>22</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>141</v>
-      </c>
-      <c r="C138" t="n">
-        <v>22</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>142</v>
-      </c>
-      <c r="C139" t="n">
-        <v>22</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>143</v>
-      </c>
-      <c r="C140" t="n">
-        <v>22</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>144</v>
-      </c>
-      <c r="C141" t="n">
-        <v>22</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" t="n">
-        <v>22</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>146</v>
-      </c>
-      <c r="C143" t="n">
-        <v>22</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>23.95</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>147</v>
-      </c>
-      <c r="C144" t="n">
-        <v>21</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>148</v>
-      </c>
-      <c r="C145" t="n">
-        <v>21</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>149</v>
-      </c>
-      <c r="C146" t="n">
-        <v>21</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>150</v>
-      </c>
-      <c r="C147" t="n">
-        <v>21</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0</v>
-      </c>
-      <c r="E147" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>151</v>
-      </c>
-      <c r="C148" t="n">
-        <v>21</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>152</v>
-      </c>
-      <c r="C149" t="n">
-        <v>21</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0</v>
-      </c>
-      <c r="E149" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>153</v>
-      </c>
-      <c r="C150" t="n">
-        <v>21</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>154</v>
-      </c>
-      <c r="C151" t="n">
-        <v>21</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>155</v>
-      </c>
-      <c r="C152" t="n">
-        <v>21</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>156</v>
-      </c>
-      <c r="C153" t="n">
-        <v>21</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>157</v>
-      </c>
-      <c r="C154" t="n">
-        <v>21</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" t="n">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>158</v>
-      </c>
-      <c r="C155" t="n">
-        <v>20</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>159</v>
-      </c>
-      <c r="C156" t="n">
-        <v>20</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>160</v>
-      </c>
-      <c r="C157" t="n">
-        <v>20</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>161</v>
-      </c>
-      <c r="C158" t="n">
-        <v>20</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>162</v>
-      </c>
-      <c r="C159" t="n">
-        <v>20</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0</v>
-      </c>
-      <c r="E159" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>163</v>
-      </c>
-      <c r="C160" t="n">
-        <v>20</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>164</v>
-      </c>
-      <c r="C161" t="n">
-        <v>20</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>165</v>
-      </c>
-      <c r="C162" t="n">
-        <v>20</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>166</v>
-      </c>
-      <c r="C163" t="n">
-        <v>20</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>167</v>
-      </c>
-      <c r="C164" t="n">
-        <v>20</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>164</v>
-      </c>
-      <c r="B165" t="s">
-        <v>168</v>
-      </c>
-      <c r="C165" t="n">
-        <v>20</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>165</v>
-      </c>
-      <c r="B166" t="s">
-        <v>169</v>
-      </c>
-      <c r="C166" t="n">
-        <v>20</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>166</v>
-      </c>
-      <c r="B167" t="s">
-        <v>170</v>
-      </c>
-      <c r="C167" t="n">
-        <v>20</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>167</v>
-      </c>
-      <c r="B168" t="s">
-        <v>171</v>
-      </c>
-      <c r="C168" t="n">
-        <v>20</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>172</v>
-      </c>
-      <c r="C169" t="n">
-        <v>20</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>26.35</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>169</v>
-      </c>
-      <c r="B170" t="s">
-        <v>173</v>
-      </c>
-      <c r="C170" t="n">
-        <v>19</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>27.74</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>174</v>
-      </c>
-      <c r="C171" t="n">
-        <v>19</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0</v>
-      </c>
-      <c r="E171" t="n">
-        <v>27.74</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>175</v>
-      </c>
-      <c r="C172" t="n">
-        <v>19</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>27.74</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>176</v>
-      </c>
-      <c r="C173" t="n">
-        <v>19</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>27.74</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>173</v>
-      </c>
-      <c r="B174" t="s">
-        <v>177</v>
-      </c>
-      <c r="C174" t="n">
-        <v>19</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="n">
-        <v>27.74</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>178</v>
-      </c>
-      <c r="C175" t="n">
-        <v>19</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>27.74</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>175</v>
-      </c>
-      <c r="B176" t="s">
-        <v>179</v>
-      </c>
-      <c r="C176" t="n">
-        <v>19</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="n">
-        <v>27.74</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>180</v>
-      </c>
-      <c r="C177" t="n">
-        <v>19</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0</v>
-      </c>
-      <c r="E177" t="n">
-        <v>27.74</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>177</v>
-      </c>
-      <c r="B178" t="s">
-        <v>181</v>
-      </c>
-      <c r="C178" t="n">
-        <v>18</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>182</v>
-      </c>
-      <c r="C179" t="n">
-        <v>18</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>183</v>
-      </c>
-      <c r="C180" t="n">
-        <v>18</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0</v>
-      </c>
-      <c r="E180" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>180</v>
-      </c>
-      <c r="B181" t="s">
-        <v>184</v>
-      </c>
-      <c r="C181" t="n">
-        <v>18</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
-      <c r="E181" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>181</v>
-      </c>
-      <c r="B182" t="s">
-        <v>185</v>
-      </c>
-      <c r="C182" t="n">
-        <v>18</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0</v>
-      </c>
-      <c r="E182" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>186</v>
-      </c>
-      <c r="C183" t="n">
-        <v>18</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>187</v>
-      </c>
-      <c r="C184" t="n">
-        <v>18</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0</v>
-      </c>
-      <c r="E184" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>184</v>
-      </c>
-      <c r="B185" t="s">
-        <v>188</v>
-      </c>
-      <c r="C185" t="n">
-        <v>18</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>185</v>
-      </c>
-      <c r="B186" t="s">
-        <v>189</v>
-      </c>
-      <c r="C186" t="n">
-        <v>18</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0</v>
-      </c>
-      <c r="E186" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>186</v>
-      </c>
-      <c r="B187" t="s">
-        <v>190</v>
-      </c>
-      <c r="C187" t="n">
-        <v>18</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>187</v>
-      </c>
-      <c r="B188" t="s">
-        <v>191</v>
-      </c>
-      <c r="C188" t="n">
-        <v>18</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>188</v>
-      </c>
-      <c r="B189" t="s">
-        <v>192</v>
-      </c>
-      <c r="C189" t="n">
-        <v>18</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="n">
-        <v>29.28</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>189</v>
-      </c>
-      <c r="B190" t="s">
-        <v>193</v>
-      </c>
-      <c r="C190" t="n">
-        <v>17</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>194</v>
-      </c>
-      <c r="C191" t="n">
-        <v>17</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0</v>
-      </c>
-      <c r="E191" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>191</v>
-      </c>
-      <c r="B192" t="s">
-        <v>195</v>
-      </c>
-      <c r="C192" t="n">
-        <v>17</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0</v>
-      </c>
-      <c r="E192" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>192</v>
-      </c>
-      <c r="B193" t="s">
-        <v>196</v>
-      </c>
-      <c r="C193" t="n">
-        <v>17</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0</v>
-      </c>
-      <c r="E193" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>193</v>
-      </c>
-      <c r="B194" t="s">
-        <v>197</v>
-      </c>
-      <c r="C194" t="n">
-        <v>17</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0</v>
-      </c>
-      <c r="E194" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>198</v>
-      </c>
-      <c r="C195" t="n">
-        <v>17</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0</v>
-      </c>
-      <c r="E195" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>195</v>
-      </c>
-      <c r="B196" t="s">
-        <v>199</v>
-      </c>
-      <c r="C196" t="n">
-        <v>17</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0</v>
-      </c>
-      <c r="E196" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>196</v>
-      </c>
-      <c r="B197" t="s">
-        <v>200</v>
-      </c>
-      <c r="C197" t="n">
-        <v>17</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>197</v>
-      </c>
-      <c r="B198" t="s">
-        <v>201</v>
-      </c>
-      <c r="C198" t="n">
-        <v>17</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>198</v>
-      </c>
-      <c r="B199" t="s">
-        <v>202</v>
-      </c>
-      <c r="C199" t="n">
-        <v>17</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>199</v>
-      </c>
-      <c r="B200" t="s">
-        <v>203</v>
-      </c>
-      <c r="C200" t="n">
-        <v>17</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>200</v>
-      </c>
-      <c r="B201" t="s">
-        <v>204</v>
-      </c>
-      <c r="C201" t="n">
-        <v>17</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" t="n">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/code/all_keywords_word_count.xlsx
+++ b/code/all_keywords_word_count.xlsx
@@ -53,18 +53,18 @@
     <t xml:space="preserve">adaptive management</t>
   </si>
   <si>
+    <t xml:space="preserve">risk assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">social capital</t>
+  </si>
+  <si>
     <t xml:space="preserve">covid-19</t>
   </si>
   <si>
-    <t xml:space="preserve">risk assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social capital</t>
-  </si>
-  <si>
     <t xml:space="preserve">sustainable development</t>
   </si>
   <si>
@@ -104,12 +104,12 @@
     <t xml:space="preserve">conceptual framework</t>
   </si>
   <si>
+    <t xml:space="preserve">urbanization</t>
+  </si>
+  <si>
     <t xml:space="preserve">perception</t>
   </si>
   <si>
-    <t xml:space="preserve">urbanization</t>
-  </si>
-  <si>
     <t xml:space="preserve">flooding</t>
   </si>
   <si>
@@ -128,18 +128,18 @@
     <t xml:space="preserve">fishery management</t>
   </si>
   <si>
+    <t xml:space="preserve">local participation</t>
+  </si>
+  <si>
     <t xml:space="preserve">qualitative analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">local participation</t>
+    <t xml:space="preserve">ecosystem resilience</t>
   </si>
   <si>
     <t xml:space="preserve">survey</t>
   </si>
   <si>
-    <t xml:space="preserve">ecosystem resilience</t>
-  </si>
-  <si>
     <t xml:space="preserve">urban development</t>
   </si>
   <si>
@@ -152,67 +152,76 @@
     <t xml:space="preserve">social media</t>
   </si>
   <si>
+    <t xml:space="preserve">fishing community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">governance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">environmental change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">food security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spatiotemporal analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fishery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">risk perception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geographic information system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthquake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">environmental policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spatial analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">participatory approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">social-ecological system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hazard assessment</t>
+  </si>
+  <si>
     <t xml:space="preserve">adult</t>
   </si>
   <si>
-    <t xml:space="preserve">fishing community</t>
-  </si>
-  <si>
-    <t xml:space="preserve">governance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">policy making</t>
-  </si>
-  <si>
-    <t xml:space="preserve">environmental change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spatiotemporal analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">risk perception</t>
-  </si>
-  <si>
-    <t xml:space="preserve">risk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fishery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geographic information system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">earthquake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">environmental policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spatial analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">community</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social-ecological system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">participatory approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hazard assessment</t>
+    <t xml:space="preserve">equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">community development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male</t>
   </si>
   <si>
     <t xml:space="preserve">development</t>
@@ -221,13 +230,7 @@
     <t xml:space="preserve">local government</t>
   </si>
   <si>
-    <t xml:space="preserve">community development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
+    <t xml:space="preserve">drought</t>
   </si>
   <si>
     <t xml:space="preserve">hazard management</t>
@@ -236,7 +239,7 @@
     <t xml:space="preserve">education</t>
   </si>
   <si>
-    <t xml:space="preserve">drought</t>
+    <t xml:space="preserve">rural development</t>
   </si>
   <si>
     <t xml:space="preserve">tourism</t>
@@ -245,48 +248,42 @@
     <t xml:space="preserve">innovation</t>
   </si>
   <si>
-    <t xml:space="preserve">rural development</t>
+    <t xml:space="preserve">risk management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comparative study</t>
   </si>
   <si>
     <t xml:space="preserve">nature-society relations</t>
   </si>
   <si>
-    <t xml:space="preserve">africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comparative study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">risk management</t>
+    <t xml:space="preserve">climate change adaptation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disaster planning</t>
   </si>
   <si>
     <t xml:space="preserve">psychology</t>
   </si>
   <si>
-    <t xml:space="preserve">climate change adaptation</t>
-  </si>
-  <si>
     <t xml:space="preserve">socioeconomic conditions</t>
   </si>
   <si>
-    <t xml:space="preserve">disaster planning</t>
+    <t xml:space="preserve">economic development</t>
   </si>
   <si>
     <t xml:space="preserve">water management</t>
   </si>
   <si>
-    <t xml:space="preserve">economic development</t>
-  </si>
-  <si>
     <t xml:space="preserve">agriculture</t>
   </si>
   <si>
+    <t xml:space="preserve">coping strategy</t>
+  </si>
+  <si>
     <t xml:space="preserve">collective action</t>
   </si>
   <si>
-    <t xml:space="preserve">coping strategy</t>
-  </si>
-  <si>
     <t xml:space="preserve">politics</t>
   </si>
   <si>
@@ -299,16 +296,22 @@
     <t xml:space="preserve">urban population</t>
   </si>
   <si>
+    <t xml:space="preserve">learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rural population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rural economy</t>
+  </si>
+  <si>
     <t xml:space="preserve">developing world</t>
   </si>
   <si>
-    <t xml:space="preserve">rural population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rural economy</t>
+    <t xml:space="preserve">water supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disaster risk reduction</t>
   </si>
   <si>
     <t xml:space="preserve">empirical analysis</t>
@@ -317,16 +320,13 @@
     <t xml:space="preserve">regression analysis</t>
   </si>
   <si>
+    <t xml:space="preserve">natural resource</t>
+  </si>
+  <si>
     <t xml:space="preserve">household survey</t>
   </si>
   <si>
-    <t xml:space="preserve">natural resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disaster risk reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water supply</t>
+    <t xml:space="preserve">flood control</t>
   </si>
 </sst>
 </file>
@@ -819,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D10" t="n">
         <v>0.02</v>
       </c>
       <c r="E10" t="n">
-        <v>3.29</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
@@ -836,13 +836,13 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" t="n">
         <v>0.02</v>
       </c>
       <c r="E11" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="12">
@@ -853,13 +853,13 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D12" t="n">
         <v>0.02</v>
       </c>
       <c r="E12" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="13">
@@ -870,13 +870,13 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" t="n">
         <v>0.02</v>
       </c>
       <c r="E13" t="n">
-        <v>3.71</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="14">
@@ -1380,13 +1380,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" t="n">
         <v>0.01</v>
       </c>
       <c r="E43" t="n">
-        <v>9.76</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="44">
@@ -1414,13 +1414,13 @@
         <v>48</v>
       </c>
       <c r="C45" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" t="n">
         <v>0.01</v>
       </c>
       <c r="E45" t="n">
-        <v>9.94</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="46">
@@ -1431,13 +1431,13 @@
         <v>49</v>
       </c>
       <c r="C46" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" t="n">
         <v>0.01</v>
       </c>
       <c r="E46" t="n">
-        <v>10.13</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="47">
@@ -1448,13 +1448,13 @@
         <v>50</v>
       </c>
       <c r="C47" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" t="n">
         <v>0.01</v>
       </c>
       <c r="E47" t="n">
-        <v>10.33</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="48">
@@ -1482,13 +1482,13 @@
         <v>52</v>
       </c>
       <c r="C49" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D49" t="n">
         <v>0.01</v>
       </c>
       <c r="E49" t="n">
-        <v>10.54</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="50">
@@ -1533,13 +1533,13 @@
         <v>55</v>
       </c>
       <c r="C52" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D52" t="n">
         <v>0.01</v>
       </c>
       <c r="E52" t="n">
-        <v>11.21</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="53">
@@ -1567,13 +1567,13 @@
         <v>57</v>
       </c>
       <c r="C54" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D54" t="n">
         <v>0.01</v>
       </c>
       <c r="E54" t="n">
-        <v>11.98</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="55">
@@ -1601,13 +1601,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56" t="n">
         <v>0.01</v>
       </c>
       <c r="E56" t="n">
-        <v>12.55</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="57">
@@ -1669,13 +1669,13 @@
         <v>63</v>
       </c>
       <c r="C60" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D60" t="n">
         <v>0.01</v>
       </c>
       <c r="E60" t="n">
-        <v>12.85</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="61">
@@ -1720,13 +1720,13 @@
         <v>66</v>
       </c>
       <c r="C63" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D63" t="n">
         <v>0.01</v>
       </c>
       <c r="E63" t="n">
-        <v>13.51</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="64">
@@ -1975,13 +1975,13 @@
         <v>81</v>
       </c>
       <c r="C78" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>15.5</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="79">
@@ -2043,13 +2043,13 @@
         <v>85</v>
       </c>
       <c r="C82" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>15.97</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="83">
@@ -2077,13 +2077,13 @@
         <v>87</v>
       </c>
       <c r="C84" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>16.47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -2128,13 +2128,13 @@
         <v>90</v>
       </c>
       <c r="C87" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>17</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="88">
@@ -2196,13 +2196,13 @@
         <v>94</v>
       </c>
       <c r="C91" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>17.57</v>
+        <v>18.17</v>
       </c>
     </row>
     <row r="92">
@@ -2264,13 +2264,13 @@
         <v>98</v>
       </c>
       <c r="C95" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>18.17</v>
+        <v>18.82</v>
       </c>
     </row>
     <row r="96">
@@ -2366,13 +2366,13 @@
         <v>104</v>
       </c>
       <c r="C101" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>18.82</v>
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>
